--- a/docs/tr_intihar_sebep.xlsx
+++ b/docs/tr_intihar_sebep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365adessogroup-my.sharepoint.com/personal/safinaz_oksuz_adesso_com_tr/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365adessogroup-my.sharepoint.com/personal/safinaz_oksuz_adesso_com_tr/Documents/Documents/GitHub/muy665-bahar2024-takim-code_or_die-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4DB114E441178AC67DF4152653CDF8683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09111497-EE97-4C7A-A486-DA04680E3AD2}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_AD4DB114E441178AC67DF4152653CDF8683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EC7317D-9F56-47D2-AE46-6347FDF330A9}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yil_sebep" sheetId="1" r:id="rId1"/>
@@ -25,51 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>yil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 759</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 725</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 584</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 971</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 352</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 350</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 170</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 425</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 085</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 596</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 113</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 306</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 109</t>
   </si>
   <si>
     <t>hastalik</t>
@@ -140,13 +98,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,20 +392,20 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -456,28 +413,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -505,8 +462,8 @@
       <c r="H2" s="2">
         <v>261</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
+      <c r="I2" s="2">
+        <v>1759</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -534,8 +491,8 @@
       <c r="H3" s="2">
         <v>220</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
+      <c r="I3" s="2">
+        <v>1725</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -563,8 +520,8 @@
       <c r="H4" s="2">
         <v>66</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>3</v>
+      <c r="I4" s="2">
+        <v>1584</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -592,8 +549,8 @@
       <c r="H5" s="2">
         <v>39</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>4</v>
+      <c r="I5" s="2">
+        <v>1971</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -621,8 +578,8 @@
       <c r="H6" s="2">
         <v>710</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
+      <c r="I6" s="2">
+        <v>1352</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -650,8 +607,8 @@
       <c r="H7" s="2">
         <v>855</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>6</v>
+      <c r="I7" s="2">
+        <v>1350</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -676,11 +633,11 @@
       <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>8</v>
+      <c r="H8" s="2">
+        <v>1009</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -705,8 +662,8 @@
       <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>9</v>
+      <c r="H9" s="2">
+        <v>1425</v>
       </c>
       <c r="I9" s="2">
         <v>779</v>
@@ -716,8 +673,8 @@
       <c r="A10">
         <v>2021</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
+      <c r="B10" s="2">
+        <v>1085</v>
       </c>
       <c r="C10" s="2">
         <v>191</v>
@@ -734,8 +691,8 @@
       <c r="G10" s="2">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
+      <c r="H10" s="2">
+        <v>1596</v>
       </c>
       <c r="I10" s="2">
         <v>892</v>
@@ -745,8 +702,8 @@
       <c r="A11">
         <v>2022</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
+      <c r="B11" s="2">
+        <v>1113</v>
       </c>
       <c r="C11" s="2">
         <v>189</v>
@@ -763,11 +720,11 @@
       <c r="G11" s="2">
         <v>12</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>14</v>
+      <c r="H11" s="2">
+        <v>1306</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
